--- a/Excel-XLSX/UN-KEN.xlsx
+++ b/Excel-XLSX/UN-KEN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1367">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>V4j4aJ</t>
+    <t>MZuI7J</t>
   </si>
   <si>
     <t>1970</t>
@@ -3993,13 +3993,13 @@
     <t>715</t>
   </si>
   <si>
-    <t>9201</t>
-  </si>
-  <si>
-    <t>22940</t>
-  </si>
-  <si>
-    <t>1147</t>
+    <t>9605</t>
+  </si>
+  <si>
+    <t>22775</t>
+  </si>
+  <si>
+    <t>2459</t>
   </si>
   <si>
     <t>717</t>
@@ -4011,28 +4011,28 @@
     <t>719</t>
   </si>
   <si>
-    <t>36967</t>
-  </si>
-  <si>
-    <t>23980</t>
+    <t>40223</t>
+  </si>
+  <si>
+    <t>22980</t>
   </si>
   <si>
     <t>721</t>
   </si>
   <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>2592</t>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>2685</t>
   </si>
   <si>
     <t>722</t>
   </si>
   <si>
-    <t>24153</t>
-  </si>
-  <si>
-    <t>15412</t>
+    <t>26987</t>
+  </si>
+  <si>
+    <t>15240</t>
   </si>
   <si>
     <t>723</t>
@@ -4056,19 +4056,25 @@
     <t>729</t>
   </si>
   <si>
-    <t>2097</t>
-  </si>
-  <si>
-    <t>301357</t>
-  </si>
-  <si>
-    <t>133826</t>
+    <t>876</t>
+  </si>
+  <si>
+    <t>2148</t>
+  </si>
+  <si>
+    <t>324496</t>
+  </si>
+  <si>
+    <t>144011</t>
   </si>
   <si>
     <t>733</t>
   </si>
   <si>
-    <t>185632</t>
+    <t>192825</t>
+  </si>
+  <si>
+    <t>2248</t>
   </si>
   <si>
     <t>734</t>
@@ -4077,10 +4083,10 @@
     <t>735</t>
   </si>
   <si>
-    <t>6280</t>
-  </si>
-  <si>
-    <t>5398</t>
+    <t>6652</t>
+  </si>
+  <si>
+    <t>5517</t>
   </si>
   <si>
     <t>736</t>
@@ -4092,16 +4098,25 @@
     <t>739</t>
   </si>
   <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>3210</t>
+    <t>835</t>
+  </si>
+  <si>
+    <t>3200</t>
   </si>
   <si>
     <t>740</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
     <t>741</t>
+  </si>
+  <si>
+    <t>742</t>
   </si>
 </sst>
 </file>
@@ -4486,7 +4501,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V742"/>
+  <dimension ref="A1:V743"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -53087,10 +53102,10 @@
         <v>30</v>
       </c>
       <c r="N715" s="2" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="O715" s="2" t="s">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="P715" s="2" t="s">
         <v>32</v>
@@ -53158,7 +53173,7 @@
         <v>61</v>
       </c>
       <c r="O716" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="P716" s="2" t="s">
         <v>32</v>
@@ -53427,10 +53442,10 @@
         <v>30</v>
       </c>
       <c r="N720" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O720" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P720" s="2" t="s">
         <v>32</v>
@@ -53501,7 +53516,7 @@
         <v>1332</v>
       </c>
       <c r="P721" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q721" s="2" t="s">
         <v>32</v>
@@ -53637,7 +53652,7 @@
         <v>1338</v>
       </c>
       <c r="P723" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q723" s="2" t="s">
         <v>32</v>
@@ -54042,7 +54057,7 @@
         <v>56</v>
       </c>
       <c r="O729" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P729" s="2" t="s">
         <v>32</v>
@@ -54110,7 +54125,7 @@
         <v>81</v>
       </c>
       <c r="O730" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P730" s="2" t="s">
         <v>32</v>
@@ -54243,10 +54258,10 @@
         <v>30</v>
       </c>
       <c r="N732" s="2" t="s">
-        <v>1102</v>
+        <v>1346</v>
       </c>
       <c r="O732" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="P732" s="2" t="s">
         <v>32</v>
@@ -54311,13 +54326,13 @@
         <v>30</v>
       </c>
       <c r="N733" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="O733" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="P733" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q733" s="2" t="s">
         <v>32</v>
@@ -54349,7 +54364,7 @@
         <v>22</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>1323</v>
@@ -54379,13 +54394,13 @@
         <v>30</v>
       </c>
       <c r="N734" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="O734" s="2" t="s">
-        <v>383</v>
+        <v>213</v>
       </c>
       <c r="P734" s="2" t="s">
-        <v>1087</v>
+        <v>1352</v>
       </c>
       <c r="Q734" s="2" t="s">
         <v>32</v>
@@ -54417,7 +54432,7 @@
         <v>22</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>1323</v>
@@ -54485,7 +54500,7 @@
         <v>22</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>1323</v>
@@ -54515,13 +54530,13 @@
         <v>30</v>
       </c>
       <c r="N736" s="2" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="O736" s="2" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="P736" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="Q736" s="2" t="s">
         <v>32</v>
@@ -54553,7 +54568,7 @@
         <v>22</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>1323</v>
@@ -54583,7 +54598,7 @@
         <v>30</v>
       </c>
       <c r="N737" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O737" s="2" t="s">
         <v>50</v>
@@ -54651,10 +54666,10 @@
         <v>30</v>
       </c>
       <c r="N738" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O738" s="2" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="P738" s="2" t="s">
         <v>32</v>
@@ -54689,7 +54704,7 @@
         <v>22</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>1323</v>
@@ -54719,7 +54734,7 @@
         <v>30</v>
       </c>
       <c r="N739" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="O739" s="2" t="s">
         <v>164</v>
@@ -54757,7 +54772,7 @@
         <v>22</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>1323</v>
@@ -54787,10 +54802,10 @@
         <v>30</v>
       </c>
       <c r="N740" s="2" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="O740" s="2" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="P740" s="2" t="s">
         <v>32</v>
@@ -54825,22 +54840,22 @@
         <v>22</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="E741" s="2" t="s">
         <v>1323</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>446</v>
+        <v>197</v>
       </c>
       <c r="G741" s="1" t="s">
-        <v>964</v>
+        <v>1363</v>
       </c>
       <c r="H741" s="1" t="s">
-        <v>965</v>
+        <v>1364</v>
       </c>
       <c r="I741" s="1" t="s">
-        <v>965</v>
+        <v>1364</v>
       </c>
       <c r="J741" s="2" t="s">
         <v>28</v>
@@ -54855,10 +54870,10 @@
         <v>30</v>
       </c>
       <c r="N741" s="2" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="O741" s="2" t="s">
-        <v>514</v>
+        <v>50</v>
       </c>
       <c r="P741" s="2" t="s">
         <v>32</v>
@@ -54893,60 +54908,128 @@
         <v>22</v>
       </c>
       <c r="D742" s="2" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="E742" s="2" t="s">
         <v>1323</v>
       </c>
       <c r="F742" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G742" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="H742" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="I742" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="J742" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K742" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L742" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M742" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N742" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O742" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P742" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q742" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R742" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S742" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T742" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U742" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V742" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F743" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G742" s="1" t="s">
+      <c r="G743" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H742" s="1" t="s">
+      <c r="H743" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I742" s="1" t="s">
+      <c r="I743" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J742" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K742" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L742" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M742" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N742" s="2" t="s">
+      <c r="J743" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K743" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L743" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M743" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N743" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O742" s="2" t="s">
+      <c r="O743" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P742" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q742" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R742" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S742" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T742" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U742" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V742" s="2" t="s">
+      <c r="P743" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q743" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R743" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S743" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T743" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U743" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V743" s="2" t="s">
         <v>32</v>
       </c>
     </row>
